--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.6787566070500001</v>
+        <v>3.17725164189825</v>
       </c>
       <c r="R2">
-        <v>2.7150264282</v>
+        <v>12.709006567593</v>
       </c>
       <c r="S2">
-        <v>0.003116495546970802</v>
+        <v>0.01185968218550526</v>
       </c>
       <c r="T2">
-        <v>0.001715107637139191</v>
+        <v>0.00799440930827936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H3">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I3">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J3">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>0.4484995106475</v>
+        <v>1.22774958458425</v>
       </c>
       <c r="R3">
-        <v>1.79399804259</v>
+        <v>4.910998338337</v>
       </c>
       <c r="S3">
-        <v>0.002059275317888072</v>
+        <v>0.004582803478498169</v>
       </c>
       <c r="T3">
-        <v>0.001133285375015219</v>
+        <v>0.003089189593233601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.115595000000001</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H4">
-        <v>14.23119</v>
+        <v>1176.01651</v>
       </c>
       <c r="I4">
-        <v>0.00930697610393229</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J4">
-        <v>0.006258695489408664</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>0.8997551284250001</v>
+        <v>63.94178167346499</v>
       </c>
       <c r="R4">
-        <v>5.398530770550001</v>
+        <v>383.65069004079</v>
       </c>
       <c r="S4">
-        <v>0.004131205239073414</v>
+        <v>0.2386745824668756</v>
       </c>
       <c r="T4">
-        <v>0.003410302477254253</v>
+        <v>0.2413296925513172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I5">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J5">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>37.39340496296666</v>
+        <v>24.70830287785166</v>
       </c>
       <c r="R5">
-        <v>224.3604297778</v>
+        <v>148.24981726711</v>
       </c>
       <c r="S5">
-        <v>0.1716909696977387</v>
+        <v>0.09222833206231452</v>
       </c>
       <c r="T5">
-        <v>0.1417305859666534</v>
+        <v>0.09325431636277463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>392.0055033333333</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H6">
-        <v>1176.01651</v>
+        <v>1125.305603</v>
       </c>
       <c r="I6">
-        <v>0.5127309595519816</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J6">
-        <v>0.5171970317736688</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N6">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O6">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P6">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q6">
-        <v>24.70830287785166</v>
+        <v>61.1845535935145</v>
       </c>
       <c r="R6">
-        <v>148.24981726711</v>
+        <v>367.107321561087</v>
       </c>
       <c r="S6">
-        <v>0.1134476115476813</v>
+        <v>0.2283827162797746</v>
       </c>
       <c r="T6">
-        <v>0.09365079881299029</v>
+        <v>0.2309233355901311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>392.0055033333333</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H7">
-        <v>1176.01651</v>
+        <v>1125.305603</v>
       </c>
       <c r="I7">
-        <v>0.5127309595519816</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J7">
-        <v>0.5171970317736688</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N7">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O7">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P7">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q7">
-        <v>49.56844255399444</v>
+        <v>23.64285826996383</v>
       </c>
       <c r="R7">
-        <v>446.11598298595</v>
+        <v>141.857149619783</v>
       </c>
       <c r="S7">
-        <v>0.2275923783065615</v>
+        <v>0.08825136207064567</v>
       </c>
       <c r="T7">
-        <v>0.2818156469940252</v>
+        <v>0.08923310499013734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>225.9980216666667</v>
+        <v>19.6220475</v>
       </c>
       <c r="H8">
-        <v>677.994065</v>
+        <v>39.244095</v>
       </c>
       <c r="I8">
-        <v>0.2955983564533448</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J8">
-        <v>0.2981731251189355</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +933,33 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N8">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O8">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P8">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q8">
-        <v>21.55795128678333</v>
+        <v>3.20064046693875</v>
       </c>
       <c r="R8">
-        <v>129.3477077207</v>
+        <v>12.802561867755</v>
       </c>
       <c r="S8">
-        <v>0.09898284376055375</v>
+        <v>0.01194698532133966</v>
       </c>
       <c r="T8">
-        <v>0.08171015908132384</v>
+        <v>0.008053258861820475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>225.9980216666667</v>
+        <v>19.6220475</v>
       </c>
       <c r="H9">
-        <v>677.994065</v>
+        <v>39.244095</v>
       </c>
       <c r="I9">
-        <v>0.2955983564533448</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J9">
-        <v>0.2981731251189355</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N9">
         <v>0.126061</v>
       </c>
       <c r="O9">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P9">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q9">
-        <v>14.24476830466083</v>
+        <v>1.23678746494875</v>
       </c>
       <c r="R9">
-        <v>85.46860982796498</v>
+        <v>4.947149859795</v>
       </c>
       <c r="S9">
-        <v>0.0654045301776872</v>
+        <v>0.004616539046477779</v>
       </c>
       <c r="T9">
-        <v>0.05399132175254619</v>
+        <v>0.003111930163719201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>225.9980216666667</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H10">
-        <v>677.994065</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I10">
-        <v>0.2955983564533448</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J10">
-        <v>0.2981731251189355</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N10">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O10">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P10">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q10">
-        <v>28.57707317638055</v>
+        <v>21.7622919942445</v>
       </c>
       <c r="R10">
-        <v>257.193658587425</v>
+        <v>130.573751965467</v>
       </c>
       <c r="S10">
-        <v>0.1312109825151038</v>
+        <v>0.08123179897885173</v>
       </c>
       <c r="T10">
-        <v>0.1624716442850655</v>
+        <v>0.08213545351305845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.69026</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H11">
-        <v>25.38052</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I11">
-        <v>0.01659846387725661</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J11">
-        <v>0.01116202833655136</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N11">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O11">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P11">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q11">
-        <v>1.2105239014</v>
+        <v>8.409357509867167</v>
       </c>
       <c r="R11">
-        <v>4.8420956056</v>
+        <v>50.456145059203</v>
       </c>
       <c r="S11">
-        <v>0.005558093002749831</v>
+        <v>0.03138948962560971</v>
       </c>
       <c r="T11">
-        <v>0.003058797169215222</v>
+        <v>0.03173867867451901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.69026</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H12">
-        <v>25.38052</v>
+        <v>735.086327</v>
       </c>
       <c r="I12">
-        <v>0.01659846387725661</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J12">
-        <v>0.01116202833655136</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N12">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O12">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P12">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q12">
-        <v>0.7998734329299998</v>
+        <v>39.9677462284805</v>
       </c>
       <c r="R12">
-        <v>3.199493731719999</v>
+        <v>239.806477370883</v>
       </c>
       <c r="S12">
-        <v>0.003672600702482683</v>
+        <v>0.1491870400474515</v>
       </c>
       <c r="T12">
-        <v>0.002021150172703848</v>
+        <v>0.1508466554551917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.69026</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H13">
-        <v>25.38052</v>
+        <v>735.086327</v>
       </c>
       <c r="I13">
-        <v>0.01659846387725661</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J13">
-        <v>0.01116202833655136</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N13">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O13">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P13">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q13">
-        <v>1.604662226566666</v>
+        <v>15.44428624465783</v>
       </c>
       <c r="R13">
-        <v>9.627973359399999</v>
+        <v>92.665717467947</v>
       </c>
       <c r="S13">
-        <v>0.007367770172024093</v>
+        <v>0.05764866843665581</v>
       </c>
       <c r="T13">
-        <v>0.006082080994632291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>7.311581666666666</v>
-      </c>
-      <c r="H14">
-        <v>21.934745</v>
-      </c>
-      <c r="I14">
-        <v>0.009563320545030469</v>
-      </c>
-      <c r="J14">
-        <v>0.009646620528067522</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.09539</v>
-      </c>
-      <c r="N14">
-        <v>0.19078</v>
-      </c>
-      <c r="O14">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P14">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q14">
-        <v>0.6974517751833333</v>
-      </c>
-      <c r="R14">
-        <v>4.1847106511</v>
-      </c>
-      <c r="S14">
-        <v>0.003202333986894985</v>
-      </c>
-      <c r="T14">
-        <v>0.002643520933119485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>7.311581666666666</v>
-      </c>
-      <c r="H15">
-        <v>21.934745</v>
-      </c>
-      <c r="I15">
-        <v>0.009563320545030469</v>
-      </c>
-      <c r="J15">
-        <v>0.009646620528067522</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N15">
-        <v>0.126061</v>
-      </c>
-      <c r="O15">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P15">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q15">
-        <v>0.4608526482408332</v>
-      </c>
-      <c r="R15">
-        <v>2.765115889445</v>
-      </c>
-      <c r="S15">
-        <v>0.002115994468612898</v>
-      </c>
-      <c r="T15">
-        <v>0.001746749619194755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.311581666666666</v>
-      </c>
-      <c r="H16">
-        <v>21.934745</v>
-      </c>
-      <c r="I16">
-        <v>0.009563320545030469</v>
-      </c>
-      <c r="J16">
-        <v>0.009646620528067522</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.379345</v>
-      </c>
-      <c r="O16">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P16">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q16">
-        <v>0.9245373157805554</v>
-      </c>
-      <c r="R16">
-        <v>8.320835842025</v>
-      </c>
-      <c r="S16">
-        <v>0.004244992089522585</v>
-      </c>
-      <c r="T16">
-        <v>0.005256349975753282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>119.4232813333333</v>
-      </c>
-      <c r="H17">
-        <v>358.269844</v>
-      </c>
-      <c r="I17">
-        <v>0.1562019234684543</v>
-      </c>
-      <c r="J17">
-        <v>0.1575624987533681</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.09539</v>
-      </c>
-      <c r="N17">
-        <v>0.19078</v>
-      </c>
-      <c r="O17">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P17">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q17">
-        <v>11.39178680638667</v>
-      </c>
-      <c r="R17">
-        <v>68.35072083832</v>
-      </c>
-      <c r="S17">
-        <v>0.05230513041846459</v>
-      </c>
-      <c r="T17">
-        <v>0.04317779086647473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>119.4232813333333</v>
-      </c>
-      <c r="H18">
-        <v>358.269844</v>
-      </c>
-      <c r="I18">
-        <v>0.1562019234684543</v>
-      </c>
-      <c r="J18">
-        <v>0.1575624987533681</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.126061</v>
-      </c>
-      <c r="O18">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P18">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q18">
-        <v>7.527309134080665</v>
-      </c>
-      <c r="R18">
-        <v>45.16385480448399</v>
-      </c>
-      <c r="S18">
-        <v>0.03456146894686059</v>
-      </c>
-      <c r="T18">
-        <v>0.0285304303093546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>119.4232813333333</v>
-      </c>
-      <c r="H19">
-        <v>358.269844</v>
-      </c>
-      <c r="I19">
-        <v>0.1562019234684543</v>
-      </c>
-      <c r="J19">
-        <v>0.1575624987533681</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.379345</v>
-      </c>
-      <c r="O19">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P19">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q19">
-        <v>15.10087488579778</v>
-      </c>
-      <c r="R19">
-        <v>135.90787397218</v>
-      </c>
-      <c r="S19">
-        <v>0.06933532410312909</v>
-      </c>
-      <c r="T19">
-        <v>0.08585427757753882</v>
+        <v>0.05828997493581787</v>
       </c>
     </row>
   </sheetData>
